--- a/APTAutomationProject/src/com/colt/qa/datalibrary/APT_DomainManagement.xlsx
+++ b/APTAutomationProject/src/com/colt/qa/datalibrary/APT_DomainManagement.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="119">
   <si>
     <t>ExistingOrderNumber</t>
   </si>
@@ -36,9 +36,6 @@
     <t>NO</t>
   </si>
   <si>
-    <t>YES</t>
-  </si>
-  <si>
     <t>MainDomain</t>
   </si>
   <si>
@@ -276,9 +273,6 @@
     <t>9498382368</t>
   </si>
   <si>
-    <t>598487</t>
-  </si>
-  <si>
     <t>+49-4773-827345</t>
   </si>
   <si>
@@ -312,142 +306,76 @@
     <t>newCustomerCreation</t>
   </si>
   <si>
-    <t>Domain1014</t>
-  </si>
-  <si>
-    <t>dmdomain1014.com</t>
-  </si>
-  <si>
-    <t>domainocn1014</t>
-  </si>
-  <si>
-    <t>testreference1014</t>
-  </si>
-  <si>
-    <t>domaincontact1014</t>
-  </si>
-  <si>
-    <t>domain1014@test.com</t>
-  </si>
-  <si>
-    <t>DomainOrder_1014</t>
-  </si>
-  <si>
-    <t>DomainRFI_1014</t>
-  </si>
-  <si>
-    <t>DomainService_1014</t>
-  </si>
-  <si>
-    <t>domainservice_1014@gmail.com</t>
-  </si>
-  <si>
-    <t>user1014</t>
-  </si>
-  <si>
-    <t>domainemail1014@gmail.com</t>
-  </si>
-  <si>
-    <t>servicecomp1014</t>
-  </si>
-  <si>
-    <t>TestRemarksedit1014</t>
-  </si>
-  <si>
-    <t>domainserviceedit_1014@gmail.com</t>
-  </si>
-  <si>
-    <t>Domainuseredit1014</t>
-  </si>
-  <si>
-    <t>domainemailedit1014@gmail.com</t>
-  </si>
-  <si>
-    <t>testedit1014</t>
-  </si>
-  <si>
-    <t>serviceedit1014</t>
-  </si>
-  <si>
-    <t>colttest1014</t>
-  </si>
-  <si>
-    <t>servicecompedit1014</t>
-  </si>
-  <si>
-    <t>DomainRFIedit_1014</t>
-  </si>
-  <si>
-    <t>DomainOrderedit_1014</t>
-  </si>
-  <si>
-    <t>Domain1016</t>
-  </si>
-  <si>
-    <t>dmdomain1016.com</t>
-  </si>
-  <si>
-    <t>domainocn1016</t>
-  </si>
-  <si>
-    <t>testreference1016</t>
-  </si>
-  <si>
-    <t>domaincontact1016</t>
-  </si>
-  <si>
-    <t>domain1016@test.com</t>
-  </si>
-  <si>
-    <t>DomainOrder_1016</t>
-  </si>
-  <si>
-    <t>DomainRFI_1016</t>
-  </si>
-  <si>
-    <t>DomainService_1016</t>
-  </si>
-  <si>
-    <t>domainservice_1016@gmail.com</t>
-  </si>
-  <si>
-    <t>user1016</t>
-  </si>
-  <si>
-    <t>domainemail1016@gmail.com</t>
-  </si>
-  <si>
-    <t>servicecomp1016</t>
-  </si>
-  <si>
-    <t>TestRemarksedit1016</t>
-  </si>
-  <si>
-    <t>domainserviceedit_1016@gmail.com</t>
-  </si>
-  <si>
-    <t>Domainuseredit1016</t>
-  </si>
-  <si>
-    <t>domainemailedit1016@gmail.com</t>
-  </si>
-  <si>
-    <t>testedit1016</t>
-  </si>
-  <si>
-    <t>serviceedit1016</t>
-  </si>
-  <si>
-    <t>colttest1016</t>
-  </si>
-  <si>
-    <t>servicecompedit1016</t>
-  </si>
-  <si>
-    <t>DomainRFIedit_1016</t>
-  </si>
-  <si>
-    <t>DomainOrderedit_1016</t>
+    <t>Null</t>
+  </si>
+  <si>
+    <t>Domain1135</t>
+  </si>
+  <si>
+    <t>dmdomain1135.com</t>
+  </si>
+  <si>
+    <t>domainocn1135</t>
+  </si>
+  <si>
+    <t>testreference1135</t>
+  </si>
+  <si>
+    <t>domaincontact1135</t>
+  </si>
+  <si>
+    <t>domain1135@test.com</t>
+  </si>
+  <si>
+    <t>DomainOrder_1135</t>
+  </si>
+  <si>
+    <t>DomainRFI_1135</t>
+  </si>
+  <si>
+    <t>DomainService_1135</t>
+  </si>
+  <si>
+    <t>domainservice_1135@gmail.com</t>
+  </si>
+  <si>
+    <t>user1135</t>
+  </si>
+  <si>
+    <t>domainemail1135@gmail.com</t>
+  </si>
+  <si>
+    <t>servicecomp1135</t>
+  </si>
+  <si>
+    <t>TestRemarksedit1135</t>
+  </si>
+  <si>
+    <t>domainserviceedit_1135@gmail.com</t>
+  </si>
+  <si>
+    <t>Domainuseredit1135</t>
+  </si>
+  <si>
+    <t>domainemailedit1135@gmail.com</t>
+  </si>
+  <si>
+    <t>testedit1135</t>
+  </si>
+  <si>
+    <t>servicecompedit1135</t>
+  </si>
+  <si>
+    <t>DomainRFIedit1135</t>
+  </si>
+  <si>
+    <t>DomainOrderedit1135</t>
+  </si>
+  <si>
+    <t>DomainOrder1135</t>
+  </si>
+  <si>
+    <t>DomainRFI1135</t>
   </si>
 </sst>
 </file>
@@ -808,7 +736,7 @@
   <dimension ref="A1:BL3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -837,7 +765,7 @@
     <col min="23" max="23" width="19" style="2" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="20.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="19.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="12.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="20.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="23.7109375" style="2" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="18.7109375" style="2" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="22.42578125" style="2" bestFit="1" customWidth="1"/>
@@ -852,7 +780,20 @@
     <col min="42" max="42" width="26.85546875" style="2" bestFit="1" customWidth="1"/>
     <col min="43" max="43" width="15.5703125" style="2" bestFit="1" customWidth="1"/>
     <col min="44" max="44" width="24.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="45" max="59" width="9.140625" style="2"/>
+    <col min="45" max="46" width="9.140625" style="2"/>
+    <col min="47" max="47" width="19.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="19.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="32" style="2" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="21.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="20.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="22.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="19.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="23.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="22.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="15.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="16.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="17.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="15.5703125" style="2" bestFit="1" customWidth="1"/>
     <col min="60" max="60" width="26.85546875" style="2" bestFit="1" customWidth="1"/>
     <col min="61" max="61" width="23.42578125" style="2" bestFit="1" customWidth="1"/>
     <col min="62" max="64" width="30.140625" style="2" bestFit="1" customWidth="1"/>
@@ -863,73 +804,73 @@
   <sheetData>
     <row r="1" spans="1:64">
       <c r="A1" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>95</v>
-      </c>
       <c r="E1" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="R1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="S1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="S1" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="T1" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="V1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="X1" s="1" t="s">
         <v>1</v>
@@ -941,506 +882,506 @@
         <v>3</v>
       </c>
       <c r="AA1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="AB1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="AB1" s="1" t="s">
-        <v>23</v>
-      </c>
       <c r="AC1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AG1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AH1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AI1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="AI1" s="1" t="s">
-        <v>34</v>
-      </c>
       <c r="AJ1" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AK1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AL1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="AL1" s="1" t="s">
+      <c r="AM1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="AM1" s="1" t="s">
+      <c r="AN1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="AN1" s="1" t="s">
-        <v>42</v>
-      </c>
       <c r="AO1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AP1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="AP1" s="1" t="s">
+      <c r="AQ1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="AQ1" s="1" t="s">
-        <v>47</v>
-      </c>
       <c r="AR1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AS1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="AS1" s="1" t="s">
+      <c r="AT1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="AT1" s="1" t="s">
+      <c r="AU1" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="AU1" s="1" t="s">
+      <c r="AV1" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="AV1" s="1" t="s">
+      <c r="AW1" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="AW1" s="1" t="s">
+      <c r="AX1" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="AX1" s="1" t="s">
+      <c r="AY1" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="AY1" s="1" t="s">
+      <c r="AZ1" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="AZ1" s="1" t="s">
+      <c r="BA1" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="BA1" s="1" t="s">
+      <c r="BB1" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="BB1" s="1" t="s">
+      <c r="BC1" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="BC1" s="1" t="s">
+      <c r="BD1" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="BD1" s="1" t="s">
+      <c r="BE1" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="BE1" s="1" t="s">
+      <c r="BF1" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="BF1" s="1" t="s">
+      <c r="BG1" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="BG1" s="1" t="s">
-        <v>64</v>
-      </c>
       <c r="BH1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BI1" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="BI1" s="1" t="s">
+      <c r="BJ1" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="BJ1" s="1" t="s">
+      <c r="BK1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BL1" s="1" t="s">
         <v>69</v>
-      </c>
-      <c r="BK1" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="BL1" s="1" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="2" spans="1:64" ht="39" customHeight="1">
       <c r="A2" s="6" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>120</v>
+        <v>96</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>120</v>
+        <v>96</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>121</v>
+        <v>97</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>122</v>
+        <v>98</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>123</v>
+        <v>99</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>124</v>
+        <v>100</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M2" s="4" t="s">
-        <v>125</v>
+        <v>101</v>
       </c>
       <c r="N2" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="O2" s="3" t="s">
         <v>79</v>
-      </c>
-      <c r="O2" s="3" t="s">
-        <v>80</v>
       </c>
       <c r="P2" s="3" t="s">
         <v>4</v>
       </c>
       <c r="Q2" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="R2" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="S2" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>4</v>
+        <v>89</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>5</v>
+        <v>88</v>
       </c>
       <c r="V2" s="2" t="s">
-        <v>126</v>
+        <v>102</v>
       </c>
       <c r="W2" s="2" t="s">
-        <v>127</v>
+        <v>103</v>
       </c>
       <c r="X2" s="2" t="s">
-        <v>126</v>
+        <v>102</v>
       </c>
       <c r="Y2" s="2" t="s">
-        <v>127</v>
+        <v>103</v>
       </c>
       <c r="Z2" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AA2" s="2" t="s">
-        <v>128</v>
+        <v>104</v>
       </c>
       <c r="AB2" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AC2" s="5" t="s">
-        <v>129</v>
+        <v>105</v>
       </c>
       <c r="AD2" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="AE2" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="AF2" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="AG2" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="AH2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="AI2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="AJ2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="AK2" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AL2" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="AM2" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="AN2" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AO2" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="AP2" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="AE2" s="2" t="s">
+      <c r="AQ2" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AR2" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AS2" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="AT2" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="AU2" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="AF2" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="AG2" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="AH2" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="AI2" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AJ2" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="AK2" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="AL2" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="AM2" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="AN2" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="AO2" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="AP2" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="AQ2" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="AR2" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="AS2" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="AT2" s="2" t="s">
+      <c r="AV2" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="AW2" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="AX2" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="AY2" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="AZ2" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="BA2" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="BB2" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="BC2" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="BD2" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="BE2" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="BF2" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="AU2" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="AV2" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="AW2" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="AX2" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="AY2" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="AZ2" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="BA2" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="BB2" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="BC2" s="2" t="s">
+      <c r="BG2" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="BD2" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="BE2" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="BF2" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="BG2" s="2" t="s">
-        <v>87</v>
-      </c>
       <c r="BH2" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="BI2" s="2" t="s">
-        <v>141</v>
+        <v>115</v>
       </c>
       <c r="BJ2" s="2" t="s">
-        <v>142</v>
+        <v>116</v>
       </c>
       <c r="BK2" s="2" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="BL2" s="2" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
     </row>
     <row r="3" spans="1:64" ht="39" customHeight="1">
       <c r="A3" s="6" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E3" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="G3" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="F3" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="G3" s="3" t="s">
+      <c r="H3" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="I3" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="H3" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="I3" s="3" t="s">
+      <c r="J3" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="K3" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="K3" s="3" t="s">
+      <c r="L3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="M3" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="L3" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="M3" s="4" t="s">
-        <v>102</v>
-      </c>
       <c r="N3" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="O3" s="3" t="s">
         <v>79</v>
-      </c>
-      <c r="O3" s="3" t="s">
-        <v>80</v>
       </c>
       <c r="P3" s="3" t="s">
         <v>4</v>
       </c>
       <c r="Q3" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="R3" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="S3" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="T3" s="2" t="s">
-        <v>4</v>
+        <v>89</v>
       </c>
       <c r="U3" s="2" t="s">
-        <v>5</v>
+        <v>88</v>
       </c>
       <c r="V3" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="W3" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="W3" s="2" t="s">
+      <c r="X3" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="Y3" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="Z3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="AA3" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="X3" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="Y3" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="Z3" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="AA3" s="2" t="s">
+      <c r="AB3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="AC3" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="AB3" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="AC3" s="5" t="s">
+      <c r="AD3" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="AE3" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="AF3" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="AD3" s="2" t="s">
+      <c r="AG3" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="AH3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="AI3" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="AJ3" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="AK3" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AL3" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="AM3" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="AN3" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AO3" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="AP3" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="AE3" s="2" t="s">
+      <c r="AQ3" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AR3" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AS3" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="AT3" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="AU3" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="AF3" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="AG3" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="AH3" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="AI3" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AJ3" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="AK3" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="AL3" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="AM3" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="AN3" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="AO3" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="AP3" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="AQ3" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="AR3" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="AS3" s="5" t="s">
+      <c r="AV3" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="AT3" s="2" t="s">
+      <c r="AW3" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="AX3" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="AY3" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="AZ3" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="BA3" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="BB3" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="BC3" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="BD3" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="BE3" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="BF3" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="AU3" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="AV3" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="AW3" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="AX3" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="AY3" s="2" t="s">
+      <c r="BG3" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="BH3" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="BI3" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="AZ3" s="2" t="s">
+      <c r="BJ3" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="BA3" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="BB3" s="2" t="s">
+      <c r="BK3" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="BC3" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="BD3" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="BE3" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="BF3" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="BG3" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="BH3" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="BI3" s="2" t="s">
+      <c r="BL3" s="2" t="s">
         <v>118</v>
-      </c>
-      <c r="BJ3" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="BK3" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="BL3" s="2" t="s">
-        <v>104</v>
       </c>
     </row>
   </sheetData>

--- a/APTAutomationProject/src/com/colt/qa/datalibrary/APT_DomainManagement.xlsx
+++ b/APTAutomationProject/src/com/colt/qa/datalibrary/APT_DomainManagement.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="215">
   <si>
     <t>ExistingOrderNumber</t>
   </si>
@@ -294,9 +294,6 @@
     <t>Run</t>
   </si>
   <si>
-    <t>url</t>
-  </si>
-  <si>
     <t>APT_NonVoiceService</t>
   </si>
   <si>
@@ -309,73 +306,364 @@
     <t>Null</t>
   </si>
   <si>
-    <t>Domain1135</t>
-  </si>
-  <si>
-    <t>dmdomain1135.com</t>
-  </si>
-  <si>
-    <t>domainocn1135</t>
-  </si>
-  <si>
-    <t>testreference1135</t>
-  </si>
-  <si>
-    <t>domaincontact1135</t>
-  </si>
-  <si>
-    <t>domain1135@test.com</t>
-  </si>
-  <si>
-    <t>DomainOrder_1135</t>
-  </si>
-  <si>
-    <t>DomainRFI_1135</t>
-  </si>
-  <si>
-    <t>DomainService_1135</t>
-  </si>
-  <si>
-    <t>domainservice_1135@gmail.com</t>
-  </si>
-  <si>
-    <t>user1135</t>
-  </si>
-  <si>
-    <t>domainemail1135@gmail.com</t>
-  </si>
-  <si>
-    <t>servicecomp1135</t>
-  </si>
-  <si>
-    <t>TestRemarksedit1135</t>
-  </si>
-  <si>
-    <t>domainserviceedit_1135@gmail.com</t>
-  </si>
-  <si>
-    <t>Domainuseredit1135</t>
-  </si>
-  <si>
-    <t>domainemailedit1135@gmail.com</t>
-  </si>
-  <si>
-    <t>testedit1135</t>
-  </si>
-  <si>
-    <t>servicecompedit1135</t>
-  </si>
-  <si>
-    <t>DomainRFIedit1135</t>
-  </si>
-  <si>
-    <t>DomainOrderedit1135</t>
-  </si>
-  <si>
-    <t>DomainOrder1135</t>
-  </si>
-  <si>
-    <t>DomainRFI1135</t>
+    <t>url for the product</t>
+  </si>
+  <si>
+    <t>editOrderSelection</t>
+  </si>
+  <si>
+    <t>changeOrderSelection_newOrder</t>
+  </si>
+  <si>
+    <t>changeOrderSelection_existingOrder</t>
+  </si>
+  <si>
+    <t>ChangeOrder_existingOrderNumber</t>
+  </si>
+  <si>
+    <t>Domain3101</t>
+  </si>
+  <si>
+    <t>dmdomain3101.com</t>
+  </si>
+  <si>
+    <t>domainocn3101</t>
+  </si>
+  <si>
+    <t>testreference3101</t>
+  </si>
+  <si>
+    <t>domaincontact3101</t>
+  </si>
+  <si>
+    <t>domain3101@test.com</t>
+  </si>
+  <si>
+    <t>DomainOrder_3101</t>
+  </si>
+  <si>
+    <t>DomainRFI_3101</t>
+  </si>
+  <si>
+    <t>DomainService_3101</t>
+  </si>
+  <si>
+    <t>domainservice_3101@gmail.com</t>
+  </si>
+  <si>
+    <t>user3101</t>
+  </si>
+  <si>
+    <t>domainemail3101@gmail.com</t>
+  </si>
+  <si>
+    <t>servicecomp3101</t>
+  </si>
+  <si>
+    <t>TestRemarksedit3101</t>
+  </si>
+  <si>
+    <t>domainserviceedit_3101@gmail.com</t>
+  </si>
+  <si>
+    <t>Domainuseredit3101</t>
+  </si>
+  <si>
+    <t>domainemailedit3101@gmail.com</t>
+  </si>
+  <si>
+    <t>testedit3101</t>
+  </si>
+  <si>
+    <t>servicecompedit3101</t>
+  </si>
+  <si>
+    <t>DomainOrderedit3101</t>
+  </si>
+  <si>
+    <t>DomainRFIedit3101</t>
+  </si>
+  <si>
+    <t>DomainOrder3101</t>
+  </si>
+  <si>
+    <t>DomainRFI3101</t>
+  </si>
+  <si>
+    <t>Domain3211</t>
+  </si>
+  <si>
+    <t>dmdomain3211.com</t>
+  </si>
+  <si>
+    <t>domainocn3211</t>
+  </si>
+  <si>
+    <t>testreference3211</t>
+  </si>
+  <si>
+    <t>domaincontact3211</t>
+  </si>
+  <si>
+    <t>domain3211@test.com</t>
+  </si>
+  <si>
+    <t>DomainOrder_3211</t>
+  </si>
+  <si>
+    <t>DomainRFI_3211</t>
+  </si>
+  <si>
+    <t>DomainService_3211</t>
+  </si>
+  <si>
+    <t>domainservice_3211@gmail.com</t>
+  </si>
+  <si>
+    <t>user3211</t>
+  </si>
+  <si>
+    <t>domainemail3211@gmail.com</t>
+  </si>
+  <si>
+    <t>servicecomp3211</t>
+  </si>
+  <si>
+    <t>TestRemarksedit3211</t>
+  </si>
+  <si>
+    <t>domainserviceedit_3211@gmail.com</t>
+  </si>
+  <si>
+    <t>Domainuseredit3211</t>
+  </si>
+  <si>
+    <t>domainemailedit3211@gmail.com</t>
+  </si>
+  <si>
+    <t>testedit3211</t>
+  </si>
+  <si>
+    <t>servicecompedit3211</t>
+  </si>
+  <si>
+    <t>DomainOrderedit3211</t>
+  </si>
+  <si>
+    <t>DomainRFIedit3211</t>
+  </si>
+  <si>
+    <t>DomainOrder3211</t>
+  </si>
+  <si>
+    <t>DomainRFI3211</t>
+  </si>
+  <si>
+    <t>Domain3304</t>
+  </si>
+  <si>
+    <t>dmdomain3304.com</t>
+  </si>
+  <si>
+    <t>domainocn3304</t>
+  </si>
+  <si>
+    <t>testreference3304</t>
+  </si>
+  <si>
+    <t>domaincontact3304</t>
+  </si>
+  <si>
+    <t>domain3304@test.com</t>
+  </si>
+  <si>
+    <t>DomainOrder_3304</t>
+  </si>
+  <si>
+    <t>DomainRFI_3304</t>
+  </si>
+  <si>
+    <t>DomainService_3304</t>
+  </si>
+  <si>
+    <t>domainservice_3304@gmail.com</t>
+  </si>
+  <si>
+    <t>user3304</t>
+  </si>
+  <si>
+    <t>domainemail3304@gmail.com</t>
+  </si>
+  <si>
+    <t>servicecomp3304</t>
+  </si>
+  <si>
+    <t>TestRemarksedit3304</t>
+  </si>
+  <si>
+    <t>domainserviceedit_3304@gmail.com</t>
+  </si>
+  <si>
+    <t>Domainuseredit3304</t>
+  </si>
+  <si>
+    <t>domainemailedit3304@gmail.com</t>
+  </si>
+  <si>
+    <t>testedit3304</t>
+  </si>
+  <si>
+    <t>servicecompedit3304</t>
+  </si>
+  <si>
+    <t>DomainOrderedit3304</t>
+  </si>
+  <si>
+    <t>DomainRFIedit3304</t>
+  </si>
+  <si>
+    <t>DomainOrder3304</t>
+  </si>
+  <si>
+    <t>DomainRFI3304</t>
+  </si>
+  <si>
+    <t>Domain3412</t>
+  </si>
+  <si>
+    <t>dmdomain3412.com</t>
+  </si>
+  <si>
+    <t>domainocn3412</t>
+  </si>
+  <si>
+    <t>testreference3412</t>
+  </si>
+  <si>
+    <t>domaincontact3412</t>
+  </si>
+  <si>
+    <t>domain3412@test.com</t>
+  </si>
+  <si>
+    <t>DomainOrder_3412</t>
+  </si>
+  <si>
+    <t>DomainRFI_3412</t>
+  </si>
+  <si>
+    <t>DomainService_3412</t>
+  </si>
+  <si>
+    <t>domainservice_3412@gmail.com</t>
+  </si>
+  <si>
+    <t>user3412</t>
+  </si>
+  <si>
+    <t>domainemail3412@gmail.com</t>
+  </si>
+  <si>
+    <t>servicecomp3412</t>
+  </si>
+  <si>
+    <t>TestRemarksedit3412</t>
+  </si>
+  <si>
+    <t>domainserviceedit_3412@gmail.com</t>
+  </si>
+  <si>
+    <t>Domainuseredit3412</t>
+  </si>
+  <si>
+    <t>domainemailedit3412@gmail.com</t>
+  </si>
+  <si>
+    <t>testedit3412</t>
+  </si>
+  <si>
+    <t>servicecompedit3412</t>
+  </si>
+  <si>
+    <t>DomainOrderedit3412</t>
+  </si>
+  <si>
+    <t>DomainRFIedit3412</t>
+  </si>
+  <si>
+    <t>DomainOrder3412</t>
+  </si>
+  <si>
+    <t>DomainRFI3412</t>
+  </si>
+  <si>
+    <t>Domain3525</t>
+  </si>
+  <si>
+    <t>dmdomain3525.com</t>
+  </si>
+  <si>
+    <t>domainocn3525</t>
+  </si>
+  <si>
+    <t>testreference3525</t>
+  </si>
+  <si>
+    <t>domaincontact3525</t>
+  </si>
+  <si>
+    <t>domain3525@test.com</t>
+  </si>
+  <si>
+    <t>DomainOrder_3525</t>
+  </si>
+  <si>
+    <t>DomainRFI_3525</t>
+  </si>
+  <si>
+    <t>DomainService_3525</t>
+  </si>
+  <si>
+    <t>domainservice_3525@gmail.com</t>
+  </si>
+  <si>
+    <t>user3525</t>
+  </si>
+  <si>
+    <t>domainemail3525@gmail.com</t>
+  </si>
+  <si>
+    <t>servicecomp3525</t>
+  </si>
+  <si>
+    <t>TestRemarksedit3525</t>
+  </si>
+  <si>
+    <t>domainserviceedit_3525@gmail.com</t>
+  </si>
+  <si>
+    <t>Domainuseredit3525</t>
+  </si>
+  <si>
+    <t>domainemailedit3525@gmail.com</t>
+  </si>
+  <si>
+    <t>testedit3525</t>
+  </si>
+  <si>
+    <t>servicecompedit3525</t>
+  </si>
+  <si>
+    <t>DomainOrderedit3525</t>
+  </si>
+  <si>
+    <t>DomainRFIedit3525</t>
+  </si>
+  <si>
+    <t>DomainOrder3525</t>
+  </si>
+  <si>
+    <t>DomainRFI3525</t>
   </si>
 </sst>
 </file>
@@ -733,10 +1021,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BL3"/>
+  <dimension ref="A1:BP6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -796,24 +1084,24 @@
     <col min="59" max="59" width="15.5703125" style="2" bestFit="1" customWidth="1"/>
     <col min="60" max="60" width="26.85546875" style="2" bestFit="1" customWidth="1"/>
     <col min="61" max="61" width="23.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="62" max="64" width="30.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="65" max="65" width="9.140625" style="2"/>
-    <col min="66" max="66" width="30.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="67" max="16384" width="9.140625" style="2"/>
+    <col min="62" max="66" width="30.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="34.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="68" max="68" width="34" style="2" bestFit="1" customWidth="1"/>
+    <col min="69" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:64">
+    <row r="1" spans="1:68">
       <c r="A1" s="1" t="s">
         <v>90</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>86</v>
@@ -984,24 +1272,36 @@
         <v>66</v>
       </c>
       <c r="BI1" s="1" t="s">
-        <v>67</v>
+        <v>96</v>
       </c>
       <c r="BJ1" s="1" t="s">
         <v>68</v>
       </c>
       <c r="BK1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BL1" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="BM1" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="BL1" s="1" t="s">
+      <c r="BN1" s="1" t="s">
         <v>69</v>
       </c>
+      <c r="BO1" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="BP1" s="1" t="s">
+        <v>99</v>
+      </c>
     </row>
-    <row r="2" spans="1:64" ht="39" customHeight="1">
+    <row r="2" spans="1:68" ht="39" customHeight="1">
       <c r="A2" s="6" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>88</v>
@@ -1010,31 +1310,31 @@
         <v>89</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="H2" s="3" t="s">
         <v>25</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="L2" s="3" t="s">
         <v>16</v>
       </c>
       <c r="M2" s="4" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="N2" s="3" t="s">
         <v>78</v>
@@ -1061,28 +1361,28 @@
         <v>88</v>
       </c>
       <c r="V2" s="2" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="W2" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="X2" s="2" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="Y2" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="Z2" s="2" t="s">
         <v>26</v>
       </c>
       <c r="AA2" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="AB2" s="2" t="s">
         <v>23</v>
       </c>
       <c r="AC2" s="5" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="AD2" s="2" t="s">
         <v>80</v>
@@ -1091,10 +1391,10 @@
         <v>75</v>
       </c>
       <c r="AF2" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="AG2" s="5" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="AH2" s="2" t="s">
         <v>34</v>
@@ -1109,7 +1409,7 @@
         <v>42</v>
       </c>
       <c r="AL2" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="AM2" s="2" t="s">
         <v>77</v>
@@ -1127,10 +1427,10 @@
         <v>82</v>
       </c>
       <c r="AR2" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="AS2" s="5" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="AT2" s="2" t="s">
         <v>83</v>
@@ -1139,28 +1439,28 @@
         <v>76</v>
       </c>
       <c r="AV2" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="AW2" s="5" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="AX2" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="AY2" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AZ2" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="BA2" s="2" t="s">
         <v>72</v>
       </c>
       <c r="BB2" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="BC2" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="BD2" s="2" t="s">
         <v>73</v>
@@ -1178,24 +1478,36 @@
         <v>71</v>
       </c>
       <c r="BI2" s="2" t="s">
-        <v>115</v>
+        <v>88</v>
       </c>
       <c r="BJ2" s="2" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="BK2" s="2" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="BL2" s="2" t="s">
-        <v>118</v>
+        <v>88</v>
+      </c>
+      <c r="BM2" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="BN2" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="BO2" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="BP2" s="2" t="s">
+        <v>119</v>
       </c>
     </row>
-    <row r="3" spans="1:64" ht="39" customHeight="1">
+    <row r="3" spans="1:68" ht="39" customHeight="1">
       <c r="A3" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>88</v>
@@ -1204,31 +1516,31 @@
         <v>89</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>96</v>
+        <v>123</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>96</v>
+        <v>123</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>97</v>
+        <v>124</v>
       </c>
       <c r="H3" s="3" t="s">
         <v>25</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>98</v>
+        <v>125</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>99</v>
+        <v>126</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>100</v>
+        <v>127</v>
       </c>
       <c r="L3" s="3" t="s">
         <v>16</v>
       </c>
       <c r="M3" s="4" t="s">
-        <v>101</v>
+        <v>128</v>
       </c>
       <c r="N3" s="3" t="s">
         <v>78</v>
@@ -1255,28 +1567,28 @@
         <v>88</v>
       </c>
       <c r="V3" s="2" t="s">
-        <v>102</v>
+        <v>129</v>
       </c>
       <c r="W3" s="2" t="s">
-        <v>103</v>
+        <v>130</v>
       </c>
       <c r="X3" s="2" t="s">
-        <v>102</v>
+        <v>129</v>
       </c>
       <c r="Y3" s="2" t="s">
-        <v>103</v>
+        <v>130</v>
       </c>
       <c r="Z3" s="2" t="s">
         <v>26</v>
       </c>
       <c r="AA3" s="2" t="s">
-        <v>104</v>
+        <v>131</v>
       </c>
       <c r="AB3" s="2" t="s">
         <v>23</v>
       </c>
       <c r="AC3" s="5" t="s">
-        <v>105</v>
+        <v>132</v>
       </c>
       <c r="AD3" s="2" t="s">
         <v>80</v>
@@ -1285,10 +1597,10 @@
         <v>75</v>
       </c>
       <c r="AF3" s="2" t="s">
-        <v>106</v>
+        <v>133</v>
       </c>
       <c r="AG3" s="5" t="s">
-        <v>107</v>
+        <v>134</v>
       </c>
       <c r="AH3" s="2" t="s">
         <v>34</v>
@@ -1303,7 +1615,7 @@
         <v>42</v>
       </c>
       <c r="AL3" s="2" t="s">
-        <v>108</v>
+        <v>135</v>
       </c>
       <c r="AM3" s="2" t="s">
         <v>77</v>
@@ -1321,10 +1633,10 @@
         <v>82</v>
       </c>
       <c r="AR3" s="2" t="s">
-        <v>109</v>
+        <v>136</v>
       </c>
       <c r="AS3" s="5" t="s">
-        <v>110</v>
+        <v>137</v>
       </c>
       <c r="AT3" s="2" t="s">
         <v>83</v>
@@ -1333,28 +1645,28 @@
         <v>76</v>
       </c>
       <c r="AV3" s="2" t="s">
-        <v>111</v>
+        <v>138</v>
       </c>
       <c r="AW3" s="5" t="s">
-        <v>112</v>
+        <v>139</v>
       </c>
       <c r="AX3" s="2" t="s">
-        <v>113</v>
+        <v>140</v>
       </c>
       <c r="AY3" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AZ3" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="BA3" s="2" t="s">
         <v>72</v>
       </c>
       <c r="BB3" s="2" t="s">
-        <v>114</v>
+        <v>141</v>
       </c>
       <c r="BC3" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="BD3" s="2" t="s">
         <v>73</v>
@@ -1372,16 +1684,646 @@
         <v>71</v>
       </c>
       <c r="BI3" s="2" t="s">
-        <v>115</v>
+        <v>88</v>
       </c>
       <c r="BJ3" s="2" t="s">
-        <v>116</v>
+        <v>142</v>
       </c>
       <c r="BK3" s="2" t="s">
-        <v>117</v>
+        <v>143</v>
       </c>
       <c r="BL3" s="2" t="s">
-        <v>118</v>
+        <v>88</v>
+      </c>
+      <c r="BM3" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="BN3" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="BO3" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="BP3" s="2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="4" spans="1:68" ht="39" customHeight="1">
+      <c r="A4" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="M4" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="N4" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="O4" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="P4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="R4" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="S4" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="T4" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="U4" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="V4" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="W4" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="X4" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="Y4" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="Z4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="AA4" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="AB4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="AC4" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="AD4" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="AE4" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="AF4" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="AG4" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="AH4" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="AI4" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="AJ4" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="AK4" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AL4" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="AM4" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="AN4" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AO4" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="AP4" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="AQ4" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AR4" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="AS4" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="AT4" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="AU4" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AV4" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="AW4" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="AX4" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="AY4" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="AZ4" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="BA4" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="BB4" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="BC4" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="BD4" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="BE4" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="BF4" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="BG4" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="BH4" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="BI4" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="BJ4" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="BK4" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="BL4" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="BM4" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="BN4" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="BO4" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="BP4" s="2" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="5" spans="1:68" ht="39" customHeight="1">
+      <c r="A5" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="M5" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="N5" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="O5" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="P5" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q5" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="R5" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="S5" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="T5" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="U5" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="V5" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="W5" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="X5" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="Y5" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="Z5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="AA5" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="AB5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="AC5" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="AD5" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="AE5" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="AF5" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="AG5" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="AH5" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="AI5" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="AJ5" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="AK5" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AL5" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="AM5" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="AN5" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AO5" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="AP5" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="AQ5" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AR5" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="AS5" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="AT5" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="AU5" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AV5" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="AW5" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="AX5" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="AY5" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="AZ5" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="BA5" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="BB5" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="BC5" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="BD5" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="BE5" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="BF5" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="BG5" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="BH5" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="BI5" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="BJ5" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="BK5" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="BL5" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="BM5" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="BN5" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="BO5" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="BP5" s="2" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="6" spans="1:68" ht="39" customHeight="1">
+      <c r="A6" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="L6" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="M6" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="N6" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="O6" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="P6" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q6" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="R6" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="S6" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="T6" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="U6" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="V6" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="W6" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="X6" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="Y6" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="Z6" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="AA6" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="AB6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="AC6" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="AD6" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="AE6" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="AF6" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="AG6" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="AH6" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="AI6" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="AJ6" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="AK6" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AL6" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="AM6" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="AN6" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AO6" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="AP6" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="AQ6" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AR6" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="AS6" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="AT6" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="AU6" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AV6" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="AW6" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="AX6" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="AY6" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="AZ6" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="BA6" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="BB6" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="BC6" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="BD6" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="BE6" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="BF6" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="BG6" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="BH6" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="BI6" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="BJ6" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="BK6" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="BL6" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="BM6" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="BN6" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="BO6" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="BP6" s="2" t="s">
+        <v>211</v>
       </c>
     </row>
   </sheetData>

--- a/APTAutomationProject/src/com/colt/qa/datalibrary/APT_DomainManagement.xlsx
+++ b/APTAutomationProject/src/com/colt/qa/datalibrary/APT_DomainManagement.xlsx
@@ -8,6 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="DomainManagement" sheetId="2" r:id="rId1"/>
+    <sheet name="Unique Data" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="216">
   <si>
     <t>ExistingOrderNumber</t>
   </si>
@@ -321,349 +322,352 @@
     <t>ChangeOrder_existingOrderNumber</t>
   </si>
   <si>
-    <t>Domain3101</t>
-  </si>
-  <si>
-    <t>dmdomain3101.com</t>
-  </si>
-  <si>
-    <t>domainocn3101</t>
-  </si>
-  <si>
-    <t>testreference3101</t>
-  </si>
-  <si>
-    <t>domaincontact3101</t>
-  </si>
-  <si>
-    <t>domain3101@test.com</t>
-  </si>
-  <si>
-    <t>DomainOrder_3101</t>
-  </si>
-  <si>
-    <t>DomainRFI_3101</t>
-  </si>
-  <si>
-    <t>DomainService_3101</t>
-  </si>
-  <si>
-    <t>domainservice_3101@gmail.com</t>
-  </si>
-  <si>
-    <t>user3101</t>
-  </si>
-  <si>
-    <t>domainemail3101@gmail.com</t>
-  </si>
-  <si>
-    <t>servicecomp3101</t>
-  </si>
-  <si>
-    <t>TestRemarksedit3101</t>
-  </si>
-  <si>
-    <t>domainserviceedit_3101@gmail.com</t>
-  </si>
-  <si>
-    <t>Domainuseredit3101</t>
-  </si>
-  <si>
-    <t>domainemailedit3101@gmail.com</t>
-  </si>
-  <si>
-    <t>testedit3101</t>
-  </si>
-  <si>
-    <t>servicecompedit3101</t>
-  </si>
-  <si>
-    <t>DomainOrderedit3101</t>
-  </si>
-  <si>
-    <t>DomainRFIedit3101</t>
-  </si>
-  <si>
-    <t>DomainOrder3101</t>
-  </si>
-  <si>
-    <t>DomainRFI3101</t>
-  </si>
-  <si>
-    <t>Domain3211</t>
-  </si>
-  <si>
-    <t>dmdomain3211.com</t>
-  </si>
-  <si>
-    <t>domainocn3211</t>
-  </si>
-  <si>
-    <t>testreference3211</t>
-  </si>
-  <si>
-    <t>domaincontact3211</t>
-  </si>
-  <si>
-    <t>domain3211@test.com</t>
-  </si>
-  <si>
-    <t>DomainOrder_3211</t>
-  </si>
-  <si>
-    <t>DomainRFI_3211</t>
-  </si>
-  <si>
-    <t>DomainService_3211</t>
-  </si>
-  <si>
-    <t>domainservice_3211@gmail.com</t>
-  </si>
-  <si>
-    <t>user3211</t>
-  </si>
-  <si>
-    <t>domainemail3211@gmail.com</t>
-  </si>
-  <si>
-    <t>servicecomp3211</t>
-  </si>
-  <si>
-    <t>TestRemarksedit3211</t>
-  </si>
-  <si>
-    <t>domainserviceedit_3211@gmail.com</t>
-  </si>
-  <si>
-    <t>Domainuseredit3211</t>
-  </si>
-  <si>
-    <t>domainemailedit3211@gmail.com</t>
-  </si>
-  <si>
-    <t>testedit3211</t>
-  </si>
-  <si>
-    <t>servicecompedit3211</t>
-  </si>
-  <si>
-    <t>DomainOrderedit3211</t>
-  </si>
-  <si>
-    <t>DomainRFIedit3211</t>
-  </si>
-  <si>
-    <t>DomainOrder3211</t>
-  </si>
-  <si>
-    <t>DomainRFI3211</t>
-  </si>
-  <si>
-    <t>Domain3304</t>
-  </si>
-  <si>
-    <t>dmdomain3304.com</t>
-  </si>
-  <si>
-    <t>domainocn3304</t>
-  </si>
-  <si>
-    <t>testreference3304</t>
-  </si>
-  <si>
-    <t>domaincontact3304</t>
-  </si>
-  <si>
-    <t>domain3304@test.com</t>
-  </si>
-  <si>
-    <t>DomainOrder_3304</t>
-  </si>
-  <si>
-    <t>DomainRFI_3304</t>
-  </si>
-  <si>
-    <t>DomainService_3304</t>
-  </si>
-  <si>
-    <t>domainservice_3304@gmail.com</t>
-  </si>
-  <si>
-    <t>user3304</t>
-  </si>
-  <si>
-    <t>domainemail3304@gmail.com</t>
-  </si>
-  <si>
-    <t>servicecomp3304</t>
-  </si>
-  <si>
-    <t>TestRemarksedit3304</t>
-  </si>
-  <si>
-    <t>domainserviceedit_3304@gmail.com</t>
-  </si>
-  <si>
-    <t>Domainuseredit3304</t>
-  </si>
-  <si>
-    <t>domainemailedit3304@gmail.com</t>
-  </si>
-  <si>
-    <t>testedit3304</t>
-  </si>
-  <si>
-    <t>servicecompedit3304</t>
-  </si>
-  <si>
-    <t>DomainOrderedit3304</t>
-  </si>
-  <si>
-    <t>DomainRFIedit3304</t>
-  </si>
-  <si>
-    <t>DomainOrder3304</t>
-  </si>
-  <si>
-    <t>DomainRFI3304</t>
-  </si>
-  <si>
-    <t>Domain3412</t>
-  </si>
-  <si>
-    <t>dmdomain3412.com</t>
-  </si>
-  <si>
-    <t>domainocn3412</t>
-  </si>
-  <si>
-    <t>testreference3412</t>
-  </si>
-  <si>
-    <t>domaincontact3412</t>
-  </si>
-  <si>
-    <t>domain3412@test.com</t>
-  </si>
-  <si>
-    <t>DomainOrder_3412</t>
-  </si>
-  <si>
-    <t>DomainRFI_3412</t>
-  </si>
-  <si>
-    <t>DomainService_3412</t>
-  </si>
-  <si>
-    <t>domainservice_3412@gmail.com</t>
-  </si>
-  <si>
-    <t>user3412</t>
-  </si>
-  <si>
-    <t>domainemail3412@gmail.com</t>
-  </si>
-  <si>
-    <t>servicecomp3412</t>
-  </si>
-  <si>
-    <t>TestRemarksedit3412</t>
-  </si>
-  <si>
-    <t>domainserviceedit_3412@gmail.com</t>
-  </si>
-  <si>
-    <t>Domainuseredit3412</t>
-  </si>
-  <si>
-    <t>domainemailedit3412@gmail.com</t>
-  </si>
-  <si>
-    <t>testedit3412</t>
-  </si>
-  <si>
-    <t>servicecompedit3412</t>
-  </si>
-  <si>
-    <t>DomainOrderedit3412</t>
-  </si>
-  <si>
-    <t>DomainRFIedit3412</t>
-  </si>
-  <si>
-    <t>DomainOrder3412</t>
-  </si>
-  <si>
-    <t>DomainRFI3412</t>
-  </si>
-  <si>
-    <t>Domain3525</t>
-  </si>
-  <si>
-    <t>dmdomain3525.com</t>
-  </si>
-  <si>
-    <t>domainocn3525</t>
-  </si>
-  <si>
-    <t>testreference3525</t>
-  </si>
-  <si>
-    <t>domaincontact3525</t>
-  </si>
-  <si>
-    <t>domain3525@test.com</t>
-  </si>
-  <si>
-    <t>DomainOrder_3525</t>
-  </si>
-  <si>
-    <t>DomainRFI_3525</t>
-  </si>
-  <si>
-    <t>DomainService_3525</t>
-  </si>
-  <si>
-    <t>domainservice_3525@gmail.com</t>
-  </si>
-  <si>
-    <t>user3525</t>
-  </si>
-  <si>
-    <t>domainemail3525@gmail.com</t>
-  </si>
-  <si>
-    <t>servicecomp3525</t>
-  </si>
-  <si>
-    <t>TestRemarksedit3525</t>
-  </si>
-  <si>
-    <t>domainserviceedit_3525@gmail.com</t>
-  </si>
-  <si>
-    <t>Domainuseredit3525</t>
-  </si>
-  <si>
-    <t>domainemailedit3525@gmail.com</t>
-  </si>
-  <si>
-    <t>testedit3525</t>
-  </si>
-  <si>
-    <t>servicecompedit3525</t>
-  </si>
-  <si>
-    <t>DomainOrderedit3525</t>
-  </si>
-  <si>
-    <t>DomainRFIedit3525</t>
-  </si>
-  <si>
-    <t>DomainOrder3525</t>
-  </si>
-  <si>
-    <t>DomainRFI3525</t>
+    <t>Columns for which unique data to be provided</t>
+  </si>
+  <si>
+    <t>Domain3112</t>
+  </si>
+  <si>
+    <t>dmdomain3112.com</t>
+  </si>
+  <si>
+    <t>domainocn3112</t>
+  </si>
+  <si>
+    <t>testreference3112</t>
+  </si>
+  <si>
+    <t>domaincontact3112</t>
+  </si>
+  <si>
+    <t>domain3112@test.com</t>
+  </si>
+  <si>
+    <t>DomainOrder_3112</t>
+  </si>
+  <si>
+    <t>DomainRFI_3112</t>
+  </si>
+  <si>
+    <t>DomainService_3112</t>
+  </si>
+  <si>
+    <t>domainservice_3112@gmail.com</t>
+  </si>
+  <si>
+    <t>user3112</t>
+  </si>
+  <si>
+    <t>domainemail3112@gmail.com</t>
+  </si>
+  <si>
+    <t>servicecomp3112</t>
+  </si>
+  <si>
+    <t>TestRemarksedit3112</t>
+  </si>
+  <si>
+    <t>domainserviceedit_3112@gmail.com</t>
+  </si>
+  <si>
+    <t>Domainuseredit3112</t>
+  </si>
+  <si>
+    <t>domainemailedit3112@gmail.com</t>
+  </si>
+  <si>
+    <t>testedit3112</t>
+  </si>
+  <si>
+    <t>servicecompedit3112</t>
+  </si>
+  <si>
+    <t>DomainOrderedit3112</t>
+  </si>
+  <si>
+    <t>DomainRFIedit3112</t>
+  </si>
+  <si>
+    <t>DomainOrder3112</t>
+  </si>
+  <si>
+    <t>DomainRFI3112</t>
+  </si>
+  <si>
+    <t>Domain3216</t>
+  </si>
+  <si>
+    <t>dmdomain3216.com</t>
+  </si>
+  <si>
+    <t>domainocn3216</t>
+  </si>
+  <si>
+    <t>testreference3216</t>
+  </si>
+  <si>
+    <t>domaincontact3216</t>
+  </si>
+  <si>
+    <t>domain3216@test.com</t>
+  </si>
+  <si>
+    <t>DomainOrder_3216</t>
+  </si>
+  <si>
+    <t>DomainRFI_3216</t>
+  </si>
+  <si>
+    <t>DomainService_3216</t>
+  </si>
+  <si>
+    <t>domainservice_3216@gmail.com</t>
+  </si>
+  <si>
+    <t>user3216</t>
+  </si>
+  <si>
+    <t>domainemail3216@gmail.com</t>
+  </si>
+  <si>
+    <t>servicecomp3216</t>
+  </si>
+  <si>
+    <t>TestRemarksedit3216</t>
+  </si>
+  <si>
+    <t>domainserviceedit_3216@gmail.com</t>
+  </si>
+  <si>
+    <t>Domainuseredit3216</t>
+  </si>
+  <si>
+    <t>domainemailedit3216@gmail.com</t>
+  </si>
+  <si>
+    <t>testedit3216</t>
+  </si>
+  <si>
+    <t>servicecompedit3216</t>
+  </si>
+  <si>
+    <t>DomainOrderedit3216</t>
+  </si>
+  <si>
+    <t>DomainRFIedit3216</t>
+  </si>
+  <si>
+    <t>DomainOrder3216</t>
+  </si>
+  <si>
+    <t>DomainRFI3216</t>
+  </si>
+  <si>
+    <t>Domain3309</t>
+  </si>
+  <si>
+    <t>dmdomain3309.com</t>
+  </si>
+  <si>
+    <t>domainocn3309</t>
+  </si>
+  <si>
+    <t>testreference3309</t>
+  </si>
+  <si>
+    <t>domaincontact3309</t>
+  </si>
+  <si>
+    <t>domain3309@test.com</t>
+  </si>
+  <si>
+    <t>DomainOrder_3309</t>
+  </si>
+  <si>
+    <t>DomainRFI_3309</t>
+  </si>
+  <si>
+    <t>DomainService_3309</t>
+  </si>
+  <si>
+    <t>domainservice_3309@gmail.com</t>
+  </si>
+  <si>
+    <t>user3309</t>
+  </si>
+  <si>
+    <t>domainemail3309@gmail.com</t>
+  </si>
+  <si>
+    <t>servicecomp3309</t>
+  </si>
+  <si>
+    <t>TestRemarksedit3309</t>
+  </si>
+  <si>
+    <t>domainserviceedit_3309@gmail.com</t>
+  </si>
+  <si>
+    <t>Domainuseredit3309</t>
+  </si>
+  <si>
+    <t>domainemailedit3309@gmail.com</t>
+  </si>
+  <si>
+    <t>testedit3309</t>
+  </si>
+  <si>
+    <t>servicecompedit3309</t>
+  </si>
+  <si>
+    <t>DomainOrderedit3309</t>
+  </si>
+  <si>
+    <t>DomainRFIedit3309</t>
+  </si>
+  <si>
+    <t>DomainOrder3309</t>
+  </si>
+  <si>
+    <t>DomainRFI3309</t>
+  </si>
+  <si>
+    <t>Domain3417</t>
+  </si>
+  <si>
+    <t>dmdomain3417.com</t>
+  </si>
+  <si>
+    <t>domainocn3417</t>
+  </si>
+  <si>
+    <t>testreference3417</t>
+  </si>
+  <si>
+    <t>domaincontact3417</t>
+  </si>
+  <si>
+    <t>domain3417@test.com</t>
+  </si>
+  <si>
+    <t>DomainOrder_3417</t>
+  </si>
+  <si>
+    <t>DomainRFI_3417</t>
+  </si>
+  <si>
+    <t>DomainService_3417</t>
+  </si>
+  <si>
+    <t>domainservice_3417@gmail.com</t>
+  </si>
+  <si>
+    <t>user3417</t>
+  </si>
+  <si>
+    <t>domainemail3417@gmail.com</t>
+  </si>
+  <si>
+    <t>servicecomp3417</t>
+  </si>
+  <si>
+    <t>TestRemarksedit3417</t>
+  </si>
+  <si>
+    <t>domainserviceedit_3417@gmail.com</t>
+  </si>
+  <si>
+    <t>Domainuseredit3417</t>
+  </si>
+  <si>
+    <t>domainemailedit3417@gmail.com</t>
+  </si>
+  <si>
+    <t>testedit3417</t>
+  </si>
+  <si>
+    <t>servicecompedit3417</t>
+  </si>
+  <si>
+    <t>DomainOrderedit3417</t>
+  </si>
+  <si>
+    <t>DomainRFIedit3417</t>
+  </si>
+  <si>
+    <t>DomainOrder3417</t>
+  </si>
+  <si>
+    <t>DomainRFI3417</t>
+  </si>
+  <si>
+    <t>Domain3529</t>
+  </si>
+  <si>
+    <t>dmdomain3529.com</t>
+  </si>
+  <si>
+    <t>domainocn3529</t>
+  </si>
+  <si>
+    <t>testreference3529</t>
+  </si>
+  <si>
+    <t>domaincontact3529</t>
+  </si>
+  <si>
+    <t>domain3529@test.com</t>
+  </si>
+  <si>
+    <t>DomainOrder_3529</t>
+  </si>
+  <si>
+    <t>DomainRFI_3529</t>
+  </si>
+  <si>
+    <t>DomainService_3529</t>
+  </si>
+  <si>
+    <t>domainservice_3529@gmail.com</t>
+  </si>
+  <si>
+    <t>user3529</t>
+  </si>
+  <si>
+    <t>domainemail3529@gmail.com</t>
+  </si>
+  <si>
+    <t>servicecomp3529</t>
+  </si>
+  <si>
+    <t>TestRemarksedit3529</t>
+  </si>
+  <si>
+    <t>domainserviceedit_3529@gmail.com</t>
+  </si>
+  <si>
+    <t>Domainuseredit3529</t>
+  </si>
+  <si>
+    <t>domainemailedit3529@gmail.com</t>
+  </si>
+  <si>
+    <t>testedit3529</t>
+  </si>
+  <si>
+    <t>servicecompedit3529</t>
+  </si>
+  <si>
+    <t>DomainOrderedit3529</t>
+  </si>
+  <si>
+    <t>DomainRFIedit3529</t>
+  </si>
+  <si>
+    <t>DomainOrder3529</t>
+  </si>
+  <si>
+    <t>DomainRFI3529</t>
   </si>
 </sst>
 </file>
@@ -695,7 +699,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -705,6 +709,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -724,7 +734,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -740,6 +750,10 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1024,7 +1038,7 @@
   <dimension ref="A1:BP6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1035,7 +1049,7 @@
     <col min="4" max="4" width="24.5703125" style="2" customWidth="1"/>
     <col min="5" max="5" width="20.42578125" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.140625" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="21.7109375" style="2" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="21.5703125" style="2" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="17.42578125" style="2" bestFit="1" customWidth="1"/>
@@ -1097,25 +1111,25 @@
       <c r="B1" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="7" t="s">
         <v>5</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="7" t="s">
         <v>7</v>
       </c>
       <c r="J1" s="1" t="s">
@@ -1148,28 +1162,28 @@
       <c r="S1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="T1" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="U1" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="V1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="W1" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="X1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Y1" s="7" t="s">
         <v>2</v>
       </c>
       <c r="Z1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AA1" s="7" t="s">
         <v>21</v>
       </c>
       <c r="AB1" s="1" t="s">
@@ -1271,28 +1285,28 @@
       <c r="BH1" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="BI1" s="1" t="s">
+      <c r="BI1" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="BJ1" s="1" t="s">
+      <c r="BJ1" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="BK1" s="1" t="s">
+      <c r="BK1" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="BL1" s="1" t="s">
+      <c r="BL1" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="BM1" s="1" t="s">
+      <c r="BM1" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="BN1" s="1" t="s">
+      <c r="BN1" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="BO1" s="1" t="s">
+      <c r="BO1" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="BP1" s="1" t="s">
+      <c r="BP1" s="7" t="s">
         <v>99</v>
       </c>
     </row>
@@ -1310,31 +1324,31 @@
         <v>89</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H2" s="3" t="s">
         <v>25</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="L2" s="3" t="s">
         <v>16</v>
       </c>
       <c r="M2" s="4" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="N2" s="3" t="s">
         <v>78</v>
@@ -1361,28 +1375,28 @@
         <v>88</v>
       </c>
       <c r="V2" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="W2" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="X2" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="X2" s="2" t="s">
-        <v>106</v>
-      </c>
       <c r="Y2" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="Z2" s="2" t="s">
         <v>26</v>
       </c>
       <c r="AA2" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AB2" s="2" t="s">
         <v>23</v>
       </c>
       <c r="AC2" s="5" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AD2" s="2" t="s">
         <v>80</v>
@@ -1391,10 +1405,10 @@
         <v>75</v>
       </c>
       <c r="AF2" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AG2" s="5" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AH2" s="2" t="s">
         <v>34</v>
@@ -1409,7 +1423,7 @@
         <v>42</v>
       </c>
       <c r="AL2" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AM2" s="2" t="s">
         <v>77</v>
@@ -1427,10 +1441,10 @@
         <v>82</v>
       </c>
       <c r="AR2" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AS2" s="5" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AT2" s="2" t="s">
         <v>83</v>
@@ -1439,13 +1453,13 @@
         <v>76</v>
       </c>
       <c r="AV2" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AW2" s="5" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AX2" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AY2" s="2" t="s">
         <v>94</v>
@@ -1457,7 +1471,7 @@
         <v>72</v>
       </c>
       <c r="BB2" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="BC2" s="2" t="s">
         <v>94</v>
@@ -1481,30 +1495,30 @@
         <v>88</v>
       </c>
       <c r="BJ2" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="BK2" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="BL2" s="2" t="s">
         <v>88</v>
       </c>
       <c r="BM2" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="BN2" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="BO2" s="2" t="s">
         <v>89</v>
       </c>
       <c r="BP2" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="3" spans="1:68" ht="39" customHeight="1">
       <c r="A3" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>91</v>
@@ -1516,31 +1530,31 @@
         <v>89</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="H3" s="3" t="s">
         <v>25</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="L3" s="3" t="s">
         <v>16</v>
       </c>
       <c r="M3" s="4" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="N3" s="3" t="s">
         <v>78</v>
@@ -1567,28 +1581,28 @@
         <v>88</v>
       </c>
       <c r="V3" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="W3" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="X3" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="X3" s="2" t="s">
-        <v>129</v>
-      </c>
       <c r="Y3" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="Z3" s="2" t="s">
         <v>26</v>
       </c>
       <c r="AA3" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AB3" s="2" t="s">
         <v>23</v>
       </c>
       <c r="AC3" s="5" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AD3" s="2" t="s">
         <v>80</v>
@@ -1597,10 +1611,10 @@
         <v>75</v>
       </c>
       <c r="AF3" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AG3" s="5" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AH3" s="2" t="s">
         <v>34</v>
@@ -1615,7 +1629,7 @@
         <v>42</v>
       </c>
       <c r="AL3" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AM3" s="2" t="s">
         <v>77</v>
@@ -1633,10 +1647,10 @@
         <v>82</v>
       </c>
       <c r="AR3" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AS3" s="5" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AT3" s="2" t="s">
         <v>83</v>
@@ -1645,13 +1659,13 @@
         <v>76</v>
       </c>
       <c r="AV3" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AW3" s="5" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="AX3" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AY3" s="2" t="s">
         <v>94</v>
@@ -1663,7 +1677,7 @@
         <v>72</v>
       </c>
       <c r="BB3" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="BC3" s="2" t="s">
         <v>94</v>
@@ -1687,30 +1701,30 @@
         <v>88</v>
       </c>
       <c r="BJ3" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="BK3" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="BL3" s="2" t="s">
         <v>88</v>
       </c>
       <c r="BM3" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="BN3" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="BO3" s="2" t="s">
         <v>89</v>
       </c>
       <c r="BP3" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="4" spans="1:68" ht="39" customHeight="1">
       <c r="A4" s="6" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>91</v>
@@ -1722,31 +1736,31 @@
         <v>89</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="H4" s="3" t="s">
         <v>25</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="L4" s="3" t="s">
         <v>16</v>
       </c>
       <c r="M4" s="4" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="N4" s="3" t="s">
         <v>78</v>
@@ -1773,28 +1787,28 @@
         <v>88</v>
       </c>
       <c r="V4" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="W4" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="X4" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="X4" s="2" t="s">
-        <v>152</v>
-      </c>
       <c r="Y4" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Z4" s="2" t="s">
         <v>26</v>
       </c>
       <c r="AA4" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="AB4" s="2" t="s">
         <v>23</v>
       </c>
       <c r="AC4" s="5" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="AD4" s="2" t="s">
         <v>80</v>
@@ -1803,10 +1817,10 @@
         <v>75</v>
       </c>
       <c r="AF4" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="AG4" s="5" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AH4" s="2" t="s">
         <v>34</v>
@@ -1821,7 +1835,7 @@
         <v>42</v>
       </c>
       <c r="AL4" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AM4" s="2" t="s">
         <v>77</v>
@@ -1839,10 +1853,10 @@
         <v>82</v>
       </c>
       <c r="AR4" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AS4" s="5" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AT4" s="2" t="s">
         <v>83</v>
@@ -1851,13 +1865,13 @@
         <v>76</v>
       </c>
       <c r="AV4" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AW4" s="5" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AX4" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AY4" s="2" t="s">
         <v>94</v>
@@ -1869,7 +1883,7 @@
         <v>72</v>
       </c>
       <c r="BB4" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="BC4" s="2" t="s">
         <v>94</v>
@@ -1893,25 +1907,25 @@
         <v>88</v>
       </c>
       <c r="BJ4" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="BK4" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="BL4" s="2" t="s">
         <v>88</v>
       </c>
       <c r="BM4" s="2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="BN4" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="BO4" s="2" t="s">
         <v>89</v>
       </c>
       <c r="BP4" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="5" spans="1:68" ht="39" customHeight="1">
@@ -1928,31 +1942,31 @@
         <v>89</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="H5" s="3" t="s">
         <v>25</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="L5" s="3" t="s">
         <v>16</v>
       </c>
       <c r="M5" s="4" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="N5" s="3" t="s">
         <v>78</v>
@@ -1979,28 +1993,28 @@
         <v>88</v>
       </c>
       <c r="V5" s="2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="W5" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="X5" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="X5" s="2" t="s">
-        <v>175</v>
-      </c>
       <c r="Y5" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Z5" s="2" t="s">
         <v>26</v>
       </c>
       <c r="AA5" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="AB5" s="2" t="s">
         <v>23</v>
       </c>
       <c r="AC5" s="5" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="AD5" s="2" t="s">
         <v>80</v>
@@ -2009,10 +2023,10 @@
         <v>75</v>
       </c>
       <c r="AF5" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AG5" s="5" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="AH5" s="2" t="s">
         <v>34</v>
@@ -2027,7 +2041,7 @@
         <v>42</v>
       </c>
       <c r="AL5" s="2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AM5" s="2" t="s">
         <v>77</v>
@@ -2045,10 +2059,10 @@
         <v>82</v>
       </c>
       <c r="AR5" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AS5" s="5" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AT5" s="2" t="s">
         <v>83</v>
@@ -2057,13 +2071,13 @@
         <v>76</v>
       </c>
       <c r="AV5" s="2" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="AW5" s="5" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="AX5" s="2" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AY5" s="2" t="s">
         <v>94</v>
@@ -2075,7 +2089,7 @@
         <v>72</v>
       </c>
       <c r="BB5" s="2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="BC5" s="2" t="s">
         <v>94</v>
@@ -2099,25 +2113,25 @@
         <v>88</v>
       </c>
       <c r="BJ5" s="2" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="BK5" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="BL5" s="2" t="s">
         <v>88</v>
       </c>
       <c r="BM5" s="2" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="BN5" s="2" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="BO5" s="2" t="s">
         <v>89</v>
       </c>
       <c r="BP5" s="2" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="6" spans="1:68" ht="39" customHeight="1">
@@ -2134,31 +2148,31 @@
         <v>89</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="H6" s="3" t="s">
         <v>25</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="L6" s="3" t="s">
         <v>16</v>
       </c>
       <c r="M6" s="4" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="N6" s="3" t="s">
         <v>78</v>
@@ -2185,28 +2199,28 @@
         <v>88</v>
       </c>
       <c r="V6" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="W6" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="X6" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="X6" s="2" t="s">
-        <v>198</v>
-      </c>
       <c r="Y6" s="2" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Z6" s="2" t="s">
         <v>26</v>
       </c>
       <c r="AA6" s="2" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AB6" s="2" t="s">
         <v>23</v>
       </c>
       <c r="AC6" s="5" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="AD6" s="2" t="s">
         <v>80</v>
@@ -2215,10 +2229,10 @@
         <v>75</v>
       </c>
       <c r="AF6" s="2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="AG6" s="5" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="AH6" s="2" t="s">
         <v>34</v>
@@ -2233,7 +2247,7 @@
         <v>42</v>
       </c>
       <c r="AL6" s="2" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="AM6" s="2" t="s">
         <v>77</v>
@@ -2251,10 +2265,10 @@
         <v>82</v>
       </c>
       <c r="AR6" s="2" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AS6" s="5" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AT6" s="2" t="s">
         <v>83</v>
@@ -2263,13 +2277,13 @@
         <v>76</v>
       </c>
       <c r="AV6" s="2" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AW6" s="5" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AX6" s="2" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AY6" s="2" t="s">
         <v>94</v>
@@ -2281,7 +2295,7 @@
         <v>72</v>
       </c>
       <c r="BB6" s="2" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="BC6" s="2" t="s">
         <v>94</v>
@@ -2305,25 +2319,99 @@
         <v>88</v>
       </c>
       <c r="BJ6" s="2" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="BK6" s="2" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="BL6" s="2" t="s">
         <v>88</v>
       </c>
       <c r="BM6" s="2" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="BN6" s="2" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="BO6" s="2" t="s">
         <v>89</v>
       </c>
       <c r="BP6" s="2" t="s">
-        <v>211</v>
+        <v>212</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="43" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" s="8" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" t="s">
+        <v>99</v>
       </c>
     </row>
   </sheetData>
